--- a/assets/pliki_bazy/polecane.xlsx
+++ b/assets/pliki_bazy/polecane.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kiedy_biegam\app_kb\pliki_bazy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kiedy_biegam_app2\app_kb\pliki_bazy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54EAC1-4727-4D35-B593-DF81EC984726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63124885-9699-4F93-AF02-CD374F21891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="240" windowWidth="19620" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35970" yWindow="2190" windowWidth="19620" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>nazwa</t>
   </si>
@@ -45,6 +45,9 @@
     <t>link</t>
   </si>
   <si>
+    <t>10. Łańcucka Piętka</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 km </t>
   </si>
   <si>
@@ -69,19 +72,73 @@
     <t>https://runrzeszow.pl/zapisy/polmaraton/</t>
   </si>
   <si>
-    <t>10. Łańcucka Piątka</t>
+    <t>51 Maraton Dębno</t>
+  </si>
+  <si>
+    <t>42.195 km</t>
+  </si>
+  <si>
+    <t>DĘBNO</t>
+  </si>
+  <si>
+    <t>11 Nocny Wrocław Półmaraton</t>
+  </si>
+  <si>
+    <t>21.097 km</t>
+  </si>
+  <si>
+    <t>WROCŁAW</t>
+  </si>
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>11 Nocny Portowy Maraton Szczeciński</t>
+  </si>
+  <si>
+    <t>SZCZECIN</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+  <si>
+    <t>48. Półmaraton Lechitów</t>
+  </si>
+  <si>
+    <t>GNIEZNO</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>Gdyński Bieg Niepodległości</t>
+  </si>
+  <si>
+    <t>10 km</t>
+  </si>
+  <si>
+    <t>GDYNIA</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,9 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -388,22 +447,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.90625" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
     <col min="6" max="6" width="38.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,45 +483,190 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>46153</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1">
-        <v>45899</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>45814</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45822</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45857</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45921</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45972</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
